--- a/config_7.20/extra_award_server.xlsx
+++ b/config_7.20/extra_award_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task|任务配置" sheetId="2" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>id|</t>
   </si>
@@ -149,6 +149,9 @@
     <t>|对应参数说明</t>
   </si>
   <si>
+    <t>100,110,130,150</t>
+  </si>
+  <si>
     <t>box_id|宝箱id</t>
   </si>
   <si>
@@ -164,9 +167,6 @@
     <t>buyu_3d_get_use_item</t>
   </si>
   <si>
-    <t>100,110,130,150</t>
-  </si>
-  <si>
     <t>buyu_get_use_item</t>
   </si>
 </sst>
@@ -176,8 +176,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -206,19 +206,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,12 +221,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -244,6 +236,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -258,7 +265,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -282,6 +303,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -291,60 +335,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,31 +400,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +436,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,25 +460,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,7 +520,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,49 +556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,15 +593,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -626,6 +617,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -637,15 +661,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,23 +683,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,139 +706,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -889,6 +889,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1507,7 +1510,7 @@
       <c r="D45" s="2"/>
       <c r="E45"/>
     </row>
-    <row r="46" s="23" customFormat="1" spans="2:5">
+    <row r="46" s="24" customFormat="1" spans="2:5">
       <c r="B46" s="9"/>
       <c r="C46" s="8"/>
       <c r="D46" s="2"/>
@@ -1822,35 +1825,35 @@
       <c r="C123" s="8"/>
     </row>
     <row r="124" spans="2:3">
-      <c r="B124" s="25"/>
+      <c r="B124" s="26"/>
       <c r="C124" s="8"/>
     </row>
     <row r="125" spans="2:3">
-      <c r="B125" s="25"/>
+      <c r="B125" s="26"/>
       <c r="C125" s="8"/>
     </row>
     <row r="126" spans="2:3">
-      <c r="B126" s="25"/>
+      <c r="B126" s="26"/>
       <c r="C126" s="8"/>
     </row>
     <row r="127" spans="2:3">
-      <c r="B127" s="25"/>
+      <c r="B127" s="26"/>
       <c r="C127" s="8"/>
     </row>
     <row r="128" spans="2:3">
-      <c r="B128" s="25"/>
+      <c r="B128" s="26"/>
       <c r="C128" s="8"/>
     </row>
     <row r="129" spans="2:3">
-      <c r="B129" s="25"/>
+      <c r="B129" s="26"/>
       <c r="C129" s="8"/>
     </row>
     <row r="130" spans="2:3">
-      <c r="B130" s="25"/>
+      <c r="B130" s="26"/>
       <c r="C130" s="8"/>
     </row>
     <row r="131" spans="2:3">
-      <c r="B131" s="25"/>
+      <c r="B131" s="26"/>
       <c r="C131" s="8"/>
     </row>
     <row r="132" spans="2:3">
@@ -2058,7 +2061,7 @@
       <c r="C182" s="7"/>
     </row>
     <row r="183" spans="2:3">
-      <c r="B183" s="25"/>
+      <c r="B183" s="26"/>
       <c r="C183" s="8"/>
     </row>
     <row r="184" spans="2:3">
@@ -2094,31 +2097,31 @@
       <c r="C191" s="8"/>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="23"/>
+      <c r="B192" s="24"/>
       <c r="C192" s="8"/>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="23"/>
+      <c r="B193" s="24"/>
       <c r="C193" s="8"/>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="23"/>
+      <c r="B194" s="24"/>
       <c r="C194" s="8"/>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="23"/>
+      <c r="B195" s="24"/>
       <c r="C195" s="8"/>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="23"/>
+      <c r="B196" s="24"/>
       <c r="C196" s="8"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="23"/>
+      <c r="B197" s="24"/>
       <c r="C197" s="8"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="23"/>
+      <c r="B198" s="24"/>
       <c r="C198" s="8"/>
     </row>
     <row r="199" spans="2:3">
@@ -2159,83 +2162,83 @@
     </row>
     <row r="208" spans="2:3">
       <c r="B208" s="9"/>
-      <c r="C208" s="21"/>
+      <c r="C208" s="22"/>
     </row>
     <row r="209" spans="2:3">
       <c r="B209" s="9"/>
-      <c r="C209" s="21"/>
+      <c r="C209" s="22"/>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" s="9"/>
-      <c r="C210" s="21"/>
+      <c r="C210" s="22"/>
     </row>
     <row r="211" spans="2:3">
       <c r="B211" s="9"/>
-      <c r="C211" s="21"/>
+      <c r="C211" s="22"/>
     </row>
     <row r="212" spans="2:3">
       <c r="B212" s="9"/>
-      <c r="C212" s="21"/>
+      <c r="C212" s="22"/>
     </row>
     <row r="213" spans="2:3">
       <c r="B213" s="9"/>
-      <c r="C213" s="21"/>
+      <c r="C213" s="22"/>
     </row>
     <row r="214" spans="2:3">
       <c r="B214" s="9"/>
-      <c r="C214" s="21"/>
+      <c r="C214" s="22"/>
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="9"/>
-      <c r="C215" s="21"/>
+      <c r="C215" s="22"/>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="9"/>
-      <c r="C216" s="21"/>
+      <c r="C216" s="22"/>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="9"/>
-      <c r="C217" s="21"/>
+      <c r="C217" s="22"/>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="9"/>
-      <c r="C218" s="21"/>
+      <c r="C218" s="22"/>
     </row>
     <row r="219" spans="2:3">
       <c r="B219" s="9"/>
-      <c r="C219" s="21"/>
+      <c r="C219" s="22"/>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="9"/>
-      <c r="C220" s="21"/>
+      <c r="C220" s="22"/>
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="9"/>
-      <c r="C221" s="21"/>
+      <c r="C221" s="22"/>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="9"/>
-      <c r="C222" s="21"/>
+      <c r="C222" s="22"/>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="9"/>
-      <c r="C223" s="21"/>
+      <c r="C223" s="22"/>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="9"/>
-      <c r="C224" s="21"/>
+      <c r="C224" s="22"/>
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="9"/>
-      <c r="C225" s="21"/>
+      <c r="C225" s="22"/>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="9"/>
-      <c r="C226" s="21"/>
+      <c r="C226" s="22"/>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="9"/>
-      <c r="C227" s="21"/>
+      <c r="C227" s="22"/>
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="9"/>
@@ -2399,11 +2402,11 @@
     </row>
     <row r="268" spans="2:3">
       <c r="B268" s="9"/>
-      <c r="C268" s="21"/>
+      <c r="C268" s="22"/>
     </row>
     <row r="269" spans="2:3">
       <c r="B269" s="9"/>
-      <c r="C269" s="21"/>
+      <c r="C269" s="22"/>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" s="9"/>
@@ -2898,7 +2901,7 @@
       <c r="C392" s="7"/>
     </row>
     <row r="393" spans="2:3">
-      <c r="B393" s="25"/>
+      <c r="B393" s="26"/>
       <c r="C393" s="7"/>
     </row>
     <row r="394" spans="2:3">
@@ -3047,27 +3050,27 @@
     </row>
     <row r="430" spans="2:3">
       <c r="B430" s="9"/>
-      <c r="C430" s="26"/>
+      <c r="C430" s="27"/>
     </row>
     <row r="431" spans="2:3">
       <c r="B431" s="9"/>
-      <c r="C431" s="22"/>
+      <c r="C431" s="23"/>
     </row>
     <row r="432" spans="2:3">
       <c r="B432" s="9"/>
-      <c r="C432" s="22"/>
+      <c r="C432" s="23"/>
     </row>
     <row r="433" spans="2:3">
       <c r="B433" s="9"/>
-      <c r="C433" s="22"/>
+      <c r="C433" s="23"/>
     </row>
     <row r="434" spans="2:3">
       <c r="B434" s="9"/>
-      <c r="C434" s="22"/>
+      <c r="C434" s="23"/>
     </row>
     <row r="435" spans="2:3">
       <c r="B435" s="9"/>
-      <c r="C435" s="26"/>
+      <c r="C435" s="27"/>
     </row>
     <row r="436" spans="2:3">
       <c r="B436" s="9"/>
@@ -3155,119 +3158,119 @@
     </row>
     <row r="457" spans="2:3">
       <c r="B457" s="9"/>
-      <c r="C457" s="27"/>
+      <c r="C457" s="28"/>
     </row>
     <row r="458" spans="2:3">
       <c r="B458" s="9"/>
-      <c r="C458" s="28"/>
+      <c r="C458" s="29"/>
     </row>
     <row r="459" spans="2:3">
       <c r="B459" s="9"/>
-      <c r="C459" s="27"/>
+      <c r="C459" s="28"/>
     </row>
     <row r="460" spans="2:3">
       <c r="B460" s="9"/>
-      <c r="C460" s="27"/>
+      <c r="C460" s="28"/>
     </row>
     <row r="461" spans="2:3">
       <c r="B461" s="9"/>
-      <c r="C461" s="27"/>
+      <c r="C461" s="28"/>
     </row>
     <row r="462" spans="2:3">
       <c r="B462" s="9"/>
-      <c r="C462" s="27"/>
+      <c r="C462" s="28"/>
     </row>
     <row r="463" spans="2:3">
       <c r="B463" s="9"/>
-      <c r="C463" s="27"/>
+      <c r="C463" s="28"/>
     </row>
     <row r="464" spans="2:3">
       <c r="B464" s="9"/>
-      <c r="C464" s="27"/>
+      <c r="C464" s="28"/>
     </row>
     <row r="465" spans="2:3">
       <c r="B465" s="9"/>
-      <c r="C465" s="27"/>
+      <c r="C465" s="28"/>
     </row>
     <row r="466" spans="2:3">
       <c r="B466" s="9"/>
-      <c r="C466" s="27"/>
+      <c r="C466" s="28"/>
     </row>
     <row r="467" spans="2:3">
       <c r="B467" s="9"/>
-      <c r="C467" s="28"/>
+      <c r="C467" s="29"/>
     </row>
     <row r="468" spans="2:3">
       <c r="B468" s="9"/>
-      <c r="C468" s="27"/>
+      <c r="C468" s="28"/>
     </row>
     <row r="469" spans="2:3">
       <c r="B469" s="9"/>
-      <c r="C469" s="27"/>
+      <c r="C469" s="28"/>
     </row>
     <row r="470" spans="2:3">
       <c r="B470" s="9"/>
-      <c r="C470" s="27"/>
+      <c r="C470" s="28"/>
     </row>
     <row r="471" spans="2:3">
       <c r="B471" s="9"/>
-      <c r="C471" s="27"/>
+      <c r="C471" s="28"/>
     </row>
     <row r="472" spans="2:3">
       <c r="B472" s="9"/>
-      <c r="C472" s="27"/>
+      <c r="C472" s="28"/>
     </row>
     <row r="473" spans="2:3">
       <c r="B473" s="9"/>
-      <c r="C473" s="27"/>
+      <c r="C473" s="28"/>
     </row>
     <row r="474" spans="2:3">
       <c r="B474" s="9"/>
-      <c r="C474" s="27"/>
+      <c r="C474" s="28"/>
     </row>
     <row r="475" spans="2:3">
       <c r="B475" s="9"/>
-      <c r="C475" s="27"/>
+      <c r="C475" s="28"/>
     </row>
     <row r="476" spans="2:3">
       <c r="B476" s="9"/>
-      <c r="C476" s="27"/>
+      <c r="C476" s="28"/>
     </row>
     <row r="477" spans="2:3">
       <c r="B477" s="9"/>
-      <c r="C477" s="27"/>
+      <c r="C477" s="28"/>
     </row>
     <row r="478" spans="2:3">
       <c r="B478" s="9"/>
-      <c r="C478" s="27"/>
+      <c r="C478" s="28"/>
     </row>
     <row r="479" spans="2:3">
       <c r="B479" s="9"/>
-      <c r="C479" s="27"/>
+      <c r="C479" s="28"/>
     </row>
     <row r="480" spans="2:3">
       <c r="B480" s="9"/>
-      <c r="C480" s="27"/>
+      <c r="C480" s="28"/>
     </row>
     <row r="481" spans="2:3">
       <c r="B481" s="9"/>
-      <c r="C481" s="27"/>
+      <c r="C481" s="28"/>
     </row>
     <row r="482" spans="2:3">
       <c r="B482" s="9"/>
-      <c r="C482" s="27"/>
+      <c r="C482" s="28"/>
     </row>
     <row r="483" spans="2:3">
       <c r="B483" s="9"/>
-      <c r="C483" s="27"/>
+      <c r="C483" s="28"/>
     </row>
     <row r="484" spans="2:3">
       <c r="B484" s="9"/>
-      <c r="C484" s="27"/>
+      <c r="C484" s="28"/>
     </row>
     <row r="485" spans="2:3">
       <c r="B485" s="9"/>
-      <c r="C485" s="27"/>
+      <c r="C485" s="28"/>
     </row>
     <row r="486" spans="2:3">
       <c r="B486" s="9"/>
@@ -3331,7 +3334,7 @@
     </row>
     <row r="501" spans="2:3">
       <c r="B501" s="9"/>
-      <c r="C501" s="29"/>
+      <c r="C501" s="30"/>
     </row>
     <row r="502" spans="2:3">
       <c r="B502" s="9"/>
@@ -3426,223 +3429,223 @@
       <c r="C524" s="7"/>
     </row>
     <row r="525" spans="2:3">
-      <c r="B525" s="21"/>
+      <c r="B525" s="22"/>
       <c r="C525" s="7"/>
     </row>
     <row r="526" spans="2:3">
-      <c r="B526" s="21"/>
+      <c r="B526" s="22"/>
       <c r="C526" s="7"/>
     </row>
     <row r="527" spans="2:3">
-      <c r="B527" s="21"/>
+      <c r="B527" s="22"/>
       <c r="C527" s="7"/>
     </row>
     <row r="528" spans="2:3">
-      <c r="B528" s="21"/>
+      <c r="B528" s="22"/>
       <c r="C528" s="7"/>
     </row>
     <row r="529" spans="2:3">
-      <c r="B529" s="21"/>
+      <c r="B529" s="22"/>
       <c r="C529" s="7"/>
     </row>
     <row r="530" spans="2:3">
-      <c r="B530" s="21"/>
+      <c r="B530" s="22"/>
       <c r="C530" s="7"/>
     </row>
     <row r="531" spans="2:3">
-      <c r="B531" s="21"/>
+      <c r="B531" s="22"/>
       <c r="C531" s="7"/>
     </row>
     <row r="532" spans="2:3">
-      <c r="B532" s="21"/>
+      <c r="B532" s="22"/>
       <c r="C532" s="7"/>
     </row>
     <row r="533" spans="2:3">
-      <c r="B533" s="21"/>
+      <c r="B533" s="22"/>
       <c r="C533" s="7"/>
     </row>
     <row r="534" spans="2:3">
-      <c r="B534" s="21"/>
+      <c r="B534" s="22"/>
       <c r="C534" s="7"/>
     </row>
     <row r="535" spans="2:3">
-      <c r="B535" s="21"/>
+      <c r="B535" s="22"/>
       <c r="C535" s="7"/>
     </row>
     <row r="536" spans="2:3">
-      <c r="B536" s="21"/>
+      <c r="B536" s="22"/>
       <c r="C536" s="7"/>
     </row>
     <row r="537" spans="2:3">
-      <c r="B537" s="21"/>
+      <c r="B537" s="22"/>
       <c r="C537" s="7"/>
     </row>
     <row r="538" spans="2:3">
-      <c r="B538" s="21"/>
+      <c r="B538" s="22"/>
       <c r="C538" s="7"/>
     </row>
     <row r="539" spans="2:3">
-      <c r="B539" s="21"/>
+      <c r="B539" s="22"/>
       <c r="C539" s="7"/>
     </row>
     <row r="540" spans="2:3">
-      <c r="B540" s="21"/>
+      <c r="B540" s="22"/>
       <c r="C540" s="7"/>
     </row>
     <row r="541" spans="2:3">
-      <c r="B541" s="21"/>
+      <c r="B541" s="22"/>
       <c r="C541" s="7"/>
     </row>
     <row r="542" spans="2:3">
-      <c r="B542" s="21"/>
+      <c r="B542" s="22"/>
       <c r="C542" s="7"/>
     </row>
     <row r="543" spans="2:3">
-      <c r="B543" s="21"/>
+      <c r="B543" s="22"/>
       <c r="C543" s="7"/>
     </row>
     <row r="544" spans="2:3">
-      <c r="B544" s="21"/>
+      <c r="B544" s="22"/>
       <c r="C544" s="7"/>
     </row>
     <row r="545" spans="2:3">
-      <c r="B545" s="21"/>
+      <c r="B545" s="22"/>
       <c r="C545" s="7"/>
     </row>
     <row r="546" spans="2:3">
-      <c r="B546" s="21"/>
+      <c r="B546" s="22"/>
       <c r="C546" s="7"/>
     </row>
     <row r="547" spans="2:3">
-      <c r="B547" s="21"/>
+      <c r="B547" s="22"/>
       <c r="C547" s="7"/>
     </row>
     <row r="548" spans="2:3">
-      <c r="B548" s="21"/>
+      <c r="B548" s="22"/>
       <c r="C548" s="7"/>
     </row>
     <row r="549" spans="2:3">
-      <c r="B549" s="21"/>
+      <c r="B549" s="22"/>
       <c r="C549" s="7"/>
     </row>
     <row r="550" spans="2:3">
-      <c r="B550" s="21"/>
+      <c r="B550" s="22"/>
       <c r="C550" s="7"/>
     </row>
     <row r="551" spans="2:3">
-      <c r="B551" s="21"/>
+      <c r="B551" s="22"/>
       <c r="C551" s="7"/>
     </row>
     <row r="552" spans="2:3">
-      <c r="B552" s="21"/>
+      <c r="B552" s="22"/>
       <c r="C552" s="7"/>
     </row>
     <row r="553" spans="2:3">
-      <c r="B553" s="21"/>
+      <c r="B553" s="22"/>
       <c r="C553" s="7"/>
     </row>
     <row r="554" spans="2:3">
-      <c r="B554" s="21"/>
+      <c r="B554" s="22"/>
       <c r="C554" s="7"/>
     </row>
     <row r="555" spans="2:3">
-      <c r="B555" s="21"/>
+      <c r="B555" s="22"/>
       <c r="C555" s="7"/>
     </row>
     <row r="556" spans="2:3">
-      <c r="B556" s="21"/>
+      <c r="B556" s="22"/>
       <c r="C556" s="7"/>
     </row>
     <row r="557" spans="2:3">
-      <c r="B557" s="21"/>
+      <c r="B557" s="22"/>
       <c r="C557" s="7"/>
     </row>
     <row r="558" spans="2:3">
-      <c r="B558" s="21"/>
+      <c r="B558" s="22"/>
       <c r="C558" s="7"/>
     </row>
     <row r="559" spans="2:3">
-      <c r="B559" s="21"/>
+      <c r="B559" s="22"/>
       <c r="C559" s="7"/>
     </row>
     <row r="560" spans="2:3">
-      <c r="B560" s="21"/>
+      <c r="B560" s="22"/>
       <c r="C560" s="7"/>
     </row>
     <row r="561" spans="2:3">
-      <c r="B561" s="21"/>
+      <c r="B561" s="22"/>
       <c r="C561" s="7"/>
     </row>
     <row r="562" spans="2:3">
-      <c r="B562" s="21"/>
+      <c r="B562" s="22"/>
       <c r="C562" s="7"/>
     </row>
     <row r="563" spans="2:3">
-      <c r="B563" s="21"/>
-      <c r="C563" s="27"/>
+      <c r="B563" s="22"/>
+      <c r="C563" s="28"/>
     </row>
     <row r="564" spans="2:3">
-      <c r="B564" s="21"/>
-      <c r="C564" s="27"/>
+      <c r="B564" s="22"/>
+      <c r="C564" s="28"/>
     </row>
     <row r="565" spans="2:3">
-      <c r="B565" s="21"/>
-      <c r="C565" s="27"/>
+      <c r="B565" s="22"/>
+      <c r="C565" s="28"/>
     </row>
     <row r="566" spans="2:3">
-      <c r="B566" s="21"/>
-      <c r="C566" s="27"/>
+      <c r="B566" s="22"/>
+      <c r="C566" s="28"/>
     </row>
     <row r="567" spans="2:3">
-      <c r="B567" s="21"/>
-      <c r="C567" s="27"/>
+      <c r="B567" s="22"/>
+      <c r="C567" s="28"/>
     </row>
     <row r="568" spans="2:3">
-      <c r="B568" s="21"/>
-      <c r="C568" s="27"/>
+      <c r="B568" s="22"/>
+      <c r="C568" s="28"/>
     </row>
     <row r="569" spans="2:3">
-      <c r="B569" s="21"/>
-      <c r="C569" s="27"/>
+      <c r="B569" s="22"/>
+      <c r="C569" s="28"/>
     </row>
     <row r="570" spans="2:3">
-      <c r="B570" s="21"/>
-      <c r="C570" s="27"/>
+      <c r="B570" s="22"/>
+      <c r="C570" s="28"/>
     </row>
     <row r="571" spans="2:3">
-      <c r="B571" s="21"/>
-      <c r="C571" s="27"/>
+      <c r="B571" s="22"/>
+      <c r="C571" s="28"/>
     </row>
     <row r="572" spans="2:3">
-      <c r="B572" s="21"/>
-      <c r="C572" s="27"/>
+      <c r="B572" s="22"/>
+      <c r="C572" s="28"/>
     </row>
     <row r="573" spans="2:3">
-      <c r="B573" s="21"/>
-      <c r="C573" s="27"/>
+      <c r="B573" s="22"/>
+      <c r="C573" s="28"/>
     </row>
     <row r="574" spans="2:3">
-      <c r="B574" s="21"/>
-      <c r="C574" s="27"/>
+      <c r="B574" s="22"/>
+      <c r="C574" s="28"/>
     </row>
     <row r="575" spans="2:3">
-      <c r="B575" s="21"/>
-      <c r="C575" s="27"/>
+      <c r="B575" s="22"/>
+      <c r="C575" s="28"/>
     </row>
     <row r="576" spans="2:3">
-      <c r="B576" s="21"/>
-      <c r="C576" s="27"/>
+      <c r="B576" s="22"/>
+      <c r="C576" s="28"/>
     </row>
     <row r="577" spans="2:3">
-      <c r="B577" s="21"/>
+      <c r="B577" s="22"/>
       <c r="C577" s="7"/>
     </row>
     <row r="578" spans="2:3">
-      <c r="B578" s="21"/>
+      <c r="B578" s="22"/>
       <c r="C578" s="7"/>
     </row>
     <row r="579" spans="2:3">
-      <c r="B579" s="21"/>
+      <c r="B579" s="22"/>
       <c r="C579" s="7"/>
     </row>
     <row r="580" spans="2:3">
@@ -3650,19 +3653,19 @@
       <c r="C580" s="7"/>
     </row>
     <row r="581" spans="2:3">
-      <c r="B581" s="21"/>
+      <c r="B581" s="22"/>
       <c r="C581" s="7"/>
     </row>
     <row r="582" spans="2:3">
-      <c r="B582" s="21"/>
+      <c r="B582" s="22"/>
       <c r="C582" s="7"/>
     </row>
     <row r="583" spans="2:3">
-      <c r="B583" s="21"/>
+      <c r="B583" s="22"/>
       <c r="C583" s="7"/>
     </row>
     <row r="584" spans="2:3">
-      <c r="B584" s="21"/>
+      <c r="B584" s="22"/>
       <c r="C584" s="7"/>
     </row>
     <row r="585" spans="2:3">
@@ -3670,11 +3673,11 @@
       <c r="C585" s="7"/>
     </row>
     <row r="586" spans="2:3">
-      <c r="B586" s="21"/>
+      <c r="B586" s="22"/>
       <c r="C586" s="7"/>
     </row>
     <row r="587" spans="2:3">
-      <c r="B587" s="21"/>
+      <c r="B587" s="22"/>
       <c r="C587" s="7"/>
     </row>
     <row r="588" spans="2:3">
@@ -3682,11 +3685,11 @@
       <c r="C588" s="7"/>
     </row>
     <row r="589" spans="2:3">
-      <c r="B589" s="21"/>
+      <c r="B589" s="22"/>
       <c r="C589" s="7"/>
     </row>
     <row r="590" spans="2:3">
-      <c r="B590" s="21"/>
+      <c r="B590" s="22"/>
       <c r="C590" s="7"/>
     </row>
     <row r="591" spans="2:3">
@@ -3698,7 +3701,7 @@
       <c r="C592" s="7"/>
     </row>
     <row r="593" spans="2:3">
-      <c r="B593" s="21"/>
+      <c r="B593" s="22"/>
       <c r="C593" s="7"/>
     </row>
     <row r="594" spans="2:3">
@@ -3706,7 +3709,7 @@
       <c r="C594" s="7"/>
     </row>
     <row r="595" spans="2:3">
-      <c r="B595" s="21"/>
+      <c r="B595" s="22"/>
       <c r="C595" s="7"/>
     </row>
     <row r="596" spans="2:3">
@@ -3714,7 +3717,7 @@
       <c r="C596" s="7"/>
     </row>
     <row r="597" spans="2:3">
-      <c r="B597" s="21"/>
+      <c r="B597" s="22"/>
       <c r="C597" s="7"/>
     </row>
     <row r="598" spans="2:3">
@@ -3722,7 +3725,7 @@
       <c r="C598" s="7"/>
     </row>
     <row r="599" spans="2:3">
-      <c r="B599" s="21"/>
+      <c r="B599" s="22"/>
       <c r="C599" s="7"/>
     </row>
     <row r="600" spans="2:3">
@@ -3730,7 +3733,7 @@
       <c r="C600" s="7"/>
     </row>
     <row r="601" spans="2:3">
-      <c r="B601" s="21"/>
+      <c r="B601" s="22"/>
       <c r="C601" s="7"/>
     </row>
     <row r="602" spans="2:3">
@@ -3746,7 +3749,7 @@
       <c r="C604" s="7"/>
     </row>
     <row r="605" spans="2:3">
-      <c r="B605" s="21"/>
+      <c r="B605" s="22"/>
       <c r="C605" s="7"/>
     </row>
     <row r="606" spans="2:3">
@@ -3754,7 +3757,7 @@
       <c r="C606" s="7"/>
     </row>
     <row r="607" spans="2:3">
-      <c r="B607" s="21"/>
+      <c r="B607" s="22"/>
       <c r="C607" s="7"/>
     </row>
     <row r="608" spans="2:3">
@@ -3762,7 +3765,7 @@
       <c r="C608" s="7"/>
     </row>
     <row r="609" spans="2:3">
-      <c r="B609" s="21"/>
+      <c r="B609" s="22"/>
       <c r="C609" s="7"/>
     </row>
     <row r="610" spans="2:3">
@@ -3770,7 +3773,7 @@
       <c r="C610" s="7"/>
     </row>
     <row r="611" spans="2:3">
-      <c r="B611" s="21"/>
+      <c r="B611" s="22"/>
       <c r="C611" s="7"/>
     </row>
     <row r="612" spans="2:3">
@@ -3778,7 +3781,7 @@
       <c r="C612" s="7"/>
     </row>
     <row r="613" spans="2:3">
-      <c r="B613" s="21"/>
+      <c r="B613" s="22"/>
       <c r="C613" s="7"/>
     </row>
     <row r="614" spans="2:3">
@@ -3786,7 +3789,7 @@
       <c r="C614" s="7"/>
     </row>
     <row r="615" spans="2:3">
-      <c r="B615" s="21"/>
+      <c r="B615" s="22"/>
       <c r="C615" s="7"/>
     </row>
     <row r="616" spans="2:3">
@@ -3798,7 +3801,7 @@
       <c r="C617" s="7"/>
     </row>
     <row r="618" spans="2:3">
-      <c r="B618" s="21"/>
+      <c r="B618" s="22"/>
       <c r="C618" s="7"/>
     </row>
     <row r="619" spans="2:3">
@@ -3810,11 +3813,11 @@
       <c r="C620" s="7"/>
     </row>
     <row r="621" spans="2:3">
-      <c r="B621" s="21"/>
+      <c r="B621" s="22"/>
       <c r="C621" s="7"/>
     </row>
     <row r="622" spans="2:3">
-      <c r="B622" s="21"/>
+      <c r="B622" s="22"/>
       <c r="C622" s="7"/>
     </row>
     <row r="623" spans="2:3">
@@ -3826,7 +3829,7 @@
       <c r="C624" s="7"/>
     </row>
     <row r="625" spans="2:3">
-      <c r="B625" s="21"/>
+      <c r="B625" s="22"/>
       <c r="C625" s="7"/>
     </row>
     <row r="626" spans="2:3">
@@ -3842,7 +3845,7 @@
       <c r="C628" s="7"/>
     </row>
     <row r="629" spans="2:3">
-      <c r="B629" s="21"/>
+      <c r="B629" s="22"/>
       <c r="C629" s="7"/>
     </row>
     <row r="630" spans="2:3">
@@ -3854,7 +3857,7 @@
       <c r="C631" s="7"/>
     </row>
     <row r="632" spans="2:3">
-      <c r="B632" s="21"/>
+      <c r="B632" s="22"/>
       <c r="C632" s="7"/>
     </row>
     <row r="633" spans="2:3">
@@ -3866,7 +3869,7 @@
       <c r="C634" s="7"/>
     </row>
     <row r="635" spans="2:3">
-      <c r="B635" s="21"/>
+      <c r="B635" s="22"/>
       <c r="C635" s="7"/>
     </row>
     <row r="636" spans="2:3">
@@ -3878,7 +3881,7 @@
       <c r="C637" s="7"/>
     </row>
     <row r="638" spans="2:3">
-      <c r="B638" s="21"/>
+      <c r="B638" s="22"/>
       <c r="C638" s="7"/>
     </row>
     <row r="639" spans="2:3">
@@ -3890,7 +3893,7 @@
       <c r="C640" s="7"/>
     </row>
     <row r="641" spans="2:3">
-      <c r="B641" s="21"/>
+      <c r="B641" s="22"/>
       <c r="C641" s="7"/>
     </row>
     <row r="642" spans="2:3">
@@ -3914,7 +3917,7 @@
       <c r="C646" s="7"/>
     </row>
     <row r="647" spans="2:3">
-      <c r="B647" s="21"/>
+      <c r="B647" s="22"/>
       <c r="C647" s="7"/>
     </row>
     <row r="648" spans="2:3">
@@ -3922,7 +3925,7 @@
       <c r="C648" s="7"/>
     </row>
     <row r="649" spans="2:3">
-      <c r="B649" s="21"/>
+      <c r="B649" s="22"/>
       <c r="C649" s="7"/>
     </row>
     <row r="650" spans="2:3">
@@ -3930,7 +3933,7 @@
       <c r="C650" s="7"/>
     </row>
     <row r="651" spans="2:3">
-      <c r="B651" s="21"/>
+      <c r="B651" s="22"/>
       <c r="C651" s="7"/>
     </row>
     <row r="652" spans="2:3">
@@ -3938,7 +3941,7 @@
       <c r="C652" s="7"/>
     </row>
     <row r="653" spans="2:3">
-      <c r="B653" s="21"/>
+      <c r="B653" s="22"/>
       <c r="C653" s="7"/>
     </row>
     <row r="654" spans="2:3">
@@ -3955,87 +3958,87 @@
     </row>
     <row r="657" spans="2:3">
       <c r="B657" s="9"/>
-      <c r="C657" s="27"/>
+      <c r="C657" s="28"/>
     </row>
     <row r="658" spans="2:3">
       <c r="B658" s="9"/>
-      <c r="C658" s="27"/>
+      <c r="C658" s="28"/>
     </row>
     <row r="659" spans="2:3">
       <c r="B659" s="9"/>
-      <c r="C659" s="27"/>
+      <c r="C659" s="28"/>
     </row>
     <row r="660" spans="2:3">
       <c r="B660" s="9"/>
-      <c r="C660" s="27"/>
+      <c r="C660" s="28"/>
     </row>
     <row r="661" spans="2:3">
       <c r="B661" s="9"/>
-      <c r="C661" s="27"/>
+      <c r="C661" s="28"/>
     </row>
     <row r="662" spans="2:3">
       <c r="B662" s="9"/>
-      <c r="C662" s="27"/>
+      <c r="C662" s="28"/>
     </row>
     <row r="663" spans="2:3">
       <c r="B663" s="9"/>
-      <c r="C663" s="27"/>
+      <c r="C663" s="28"/>
     </row>
     <row r="664" spans="2:3">
       <c r="B664" s="9"/>
-      <c r="C664" s="27"/>
+      <c r="C664" s="28"/>
     </row>
     <row r="665" spans="2:3">
       <c r="B665" s="9"/>
-      <c r="C665" s="27"/>
+      <c r="C665" s="28"/>
     </row>
     <row r="666" spans="2:3">
       <c r="B666" s="9"/>
-      <c r="C666" s="27"/>
+      <c r="C666" s="28"/>
     </row>
     <row r="667" spans="2:3">
       <c r="B667" s="9"/>
-      <c r="C667" s="27"/>
+      <c r="C667" s="28"/>
     </row>
     <row r="668" spans="2:3">
       <c r="B668" s="9"/>
-      <c r="C668" s="27"/>
+      <c r="C668" s="28"/>
     </row>
     <row r="669" spans="2:3">
       <c r="B669" s="9"/>
-      <c r="C669" s="27"/>
+      <c r="C669" s="28"/>
     </row>
     <row r="670" spans="2:3">
       <c r="B670" s="9"/>
-      <c r="C670" s="27"/>
+      <c r="C670" s="28"/>
     </row>
     <row r="671" spans="2:3">
       <c r="B671" s="9"/>
-      <c r="C671" s="27"/>
+      <c r="C671" s="28"/>
     </row>
     <row r="672" spans="2:3">
       <c r="B672" s="9"/>
-      <c r="C672" s="27"/>
+      <c r="C672" s="28"/>
     </row>
     <row r="673" spans="2:3">
       <c r="B673" s="9"/>
-      <c r="C673" s="27"/>
+      <c r="C673" s="28"/>
     </row>
     <row r="674" spans="2:3">
       <c r="B674" s="9"/>
-      <c r="C674" s="27"/>
+      <c r="C674" s="28"/>
     </row>
     <row r="675" spans="2:3">
       <c r="B675" s="9"/>
-      <c r="C675" s="27"/>
+      <c r="C675" s="28"/>
     </row>
     <row r="676" spans="2:3">
       <c r="B676" s="9"/>
-      <c r="C676" s="27"/>
+      <c r="C676" s="28"/>
     </row>
     <row r="677" spans="2:3">
       <c r="B677" s="9"/>
-      <c r="C677" s="27"/>
+      <c r="C677" s="28"/>
     </row>
     <row r="678" spans="2:3">
       <c r="B678" s="9"/>
@@ -4139,59 +4142,59 @@
     </row>
     <row r="703" spans="2:3">
       <c r="B703" s="9"/>
-      <c r="C703" s="27"/>
+      <c r="C703" s="28"/>
     </row>
     <row r="704" spans="2:3">
       <c r="B704" s="9"/>
-      <c r="C704" s="27"/>
+      <c r="C704" s="28"/>
     </row>
     <row r="705" spans="2:3">
       <c r="B705" s="9"/>
-      <c r="C705" s="27"/>
+      <c r="C705" s="28"/>
     </row>
     <row r="706" spans="2:3">
       <c r="B706" s="9"/>
-      <c r="C706" s="27"/>
+      <c r="C706" s="28"/>
     </row>
     <row r="707" spans="2:3">
       <c r="B707" s="9"/>
-      <c r="C707" s="27"/>
+      <c r="C707" s="28"/>
     </row>
     <row r="708" spans="2:3">
       <c r="B708" s="9"/>
-      <c r="C708" s="27"/>
+      <c r="C708" s="28"/>
     </row>
     <row r="709" spans="2:3">
       <c r="B709" s="9"/>
-      <c r="C709" s="27"/>
+      <c r="C709" s="28"/>
     </row>
     <row r="710" spans="2:3">
       <c r="B710" s="9"/>
-      <c r="C710" s="27"/>
+      <c r="C710" s="28"/>
     </row>
     <row r="711" spans="2:3">
       <c r="B711" s="9"/>
-      <c r="C711" s="27"/>
+      <c r="C711" s="28"/>
     </row>
     <row r="712" spans="2:3">
       <c r="B712" s="9"/>
-      <c r="C712" s="27"/>
+      <c r="C712" s="28"/>
     </row>
     <row r="713" spans="2:3">
       <c r="B713" s="9"/>
-      <c r="C713" s="27"/>
+      <c r="C713" s="28"/>
     </row>
     <row r="714" spans="2:3">
       <c r="B714" s="9"/>
-      <c r="C714" s="27"/>
+      <c r="C714" s="28"/>
     </row>
     <row r="715" spans="2:3">
       <c r="B715" s="9"/>
-      <c r="C715" s="27"/>
+      <c r="C715" s="28"/>
     </row>
     <row r="716" spans="2:3">
       <c r="B716" s="9"/>
-      <c r="C716" s="27"/>
+      <c r="C716" s="28"/>
     </row>
     <row r="717" spans="2:3">
       <c r="B717" s="9"/>
@@ -4199,31 +4202,31 @@
     </row>
     <row r="718" spans="2:3">
       <c r="B718" s="9"/>
-      <c r="C718" s="27"/>
+      <c r="C718" s="28"/>
     </row>
     <row r="719" spans="2:3">
       <c r="B719" s="9"/>
-      <c r="C719" s="27"/>
+      <c r="C719" s="28"/>
     </row>
     <row r="720" spans="2:3">
       <c r="B720" s="9"/>
-      <c r="C720" s="27"/>
+      <c r="C720" s="28"/>
     </row>
     <row r="721" spans="2:3">
       <c r="B721" s="9"/>
-      <c r="C721" s="27"/>
+      <c r="C721" s="28"/>
     </row>
     <row r="722" spans="2:3">
       <c r="B722" s="9"/>
-      <c r="C722" s="27"/>
+      <c r="C722" s="28"/>
     </row>
     <row r="723" spans="2:3">
       <c r="B723" s="9"/>
-      <c r="C723" s="27"/>
+      <c r="C723" s="28"/>
     </row>
     <row r="724" spans="2:3">
       <c r="B724" s="9"/>
-      <c r="C724" s="27"/>
+      <c r="C724" s="28"/>
     </row>
     <row r="725" spans="2:3">
       <c r="B725" s="9"/>
@@ -4478,67 +4481,67 @@
       <c r="C787" s="7"/>
     </row>
     <row r="788" spans="2:3">
-      <c r="B788" s="23"/>
+      <c r="B788" s="24"/>
       <c r="C788" s="7"/>
     </row>
     <row r="789" spans="2:3">
-      <c r="B789" s="23"/>
+      <c r="B789" s="24"/>
       <c r="C789" s="7"/>
     </row>
     <row r="790" spans="2:3">
-      <c r="B790" s="23"/>
+      <c r="B790" s="24"/>
       <c r="C790" s="7"/>
     </row>
     <row r="791" spans="2:3">
-      <c r="B791" s="23"/>
+      <c r="B791" s="24"/>
       <c r="C791" s="7"/>
     </row>
     <row r="792" spans="2:3">
-      <c r="B792" s="23"/>
+      <c r="B792" s="24"/>
       <c r="C792" s="7"/>
     </row>
     <row r="793" spans="2:3">
-      <c r="B793" s="23"/>
+      <c r="B793" s="24"/>
       <c r="C793" s="7"/>
     </row>
     <row r="794" spans="2:3">
-      <c r="B794" s="23"/>
+      <c r="B794" s="24"/>
       <c r="C794" s="7"/>
     </row>
     <row r="795" spans="2:3">
-      <c r="B795" s="23"/>
+      <c r="B795" s="24"/>
       <c r="C795" s="7"/>
     </row>
     <row r="796" spans="2:3">
-      <c r="B796" s="23"/>
+      <c r="B796" s="24"/>
       <c r="C796" s="7"/>
     </row>
     <row r="797" spans="2:3">
-      <c r="B797" s="23"/>
+      <c r="B797" s="24"/>
       <c r="C797" s="7"/>
     </row>
     <row r="798" spans="2:3">
-      <c r="B798" s="23"/>
+      <c r="B798" s="24"/>
       <c r="C798" s="7"/>
     </row>
     <row r="799" spans="2:3">
-      <c r="B799" s="23"/>
+      <c r="B799" s="24"/>
       <c r="C799" s="7"/>
     </row>
     <row r="800" spans="2:3">
-      <c r="B800" s="23"/>
+      <c r="B800" s="24"/>
       <c r="C800" s="7"/>
     </row>
     <row r="801" spans="2:3">
-      <c r="B801" s="23"/>
+      <c r="B801" s="24"/>
       <c r="C801" s="7"/>
     </row>
     <row r="802" spans="2:3">
-      <c r="B802" s="23"/>
+      <c r="B802" s="24"/>
       <c r="C802" s="7"/>
     </row>
     <row r="803" spans="2:3">
-      <c r="B803" s="23"/>
+      <c r="B803" s="24"/>
       <c r="C803" s="7"/>
     </row>
     <row r="804" spans="3:3">
@@ -4602,7 +4605,7 @@
       <c r="C823" s="7"/>
     </row>
     <row r="824" spans="3:3">
-      <c r="C824" s="30"/>
+      <c r="C824" s="31"/>
     </row>
     <row r="825" spans="3:3">
       <c r="C825" s="7"/>
@@ -4854,28 +4857,28 @@
       <c r="C907" s="7"/>
     </row>
     <row r="908" spans="3:3">
-      <c r="C908" s="27"/>
+      <c r="C908" s="28"/>
     </row>
     <row r="909" spans="3:3">
-      <c r="C909" s="27"/>
+      <c r="C909" s="28"/>
     </row>
     <row r="910" spans="3:3">
-      <c r="C910" s="27"/>
+      <c r="C910" s="28"/>
     </row>
     <row r="911" spans="3:3">
-      <c r="C911" s="27"/>
+      <c r="C911" s="28"/>
     </row>
     <row r="912" spans="3:3">
-      <c r="C912" s="27"/>
+      <c r="C912" s="28"/>
     </row>
     <row r="913" spans="3:3">
-      <c r="C913" s="27"/>
+      <c r="C913" s="28"/>
     </row>
     <row r="914" spans="3:3">
-      <c r="C914" s="27"/>
+      <c r="C914" s="28"/>
     </row>
     <row r="915" spans="3:3">
-      <c r="C915" s="27"/>
+      <c r="C915" s="28"/>
     </row>
     <row r="916" spans="3:3">
       <c r="C916" s="7"/>
@@ -5166,64 +5169,64 @@
       <c r="C1011" s="7"/>
     </row>
     <row r="1012" spans="3:3">
-      <c r="C1012" s="27"/>
+      <c r="C1012" s="28"/>
     </row>
     <row r="1013" spans="3:3">
-      <c r="C1013" s="27"/>
+      <c r="C1013" s="28"/>
     </row>
     <row r="1014" spans="3:3">
-      <c r="C1014" s="27"/>
+      <c r="C1014" s="28"/>
     </row>
     <row r="1015" spans="3:3">
-      <c r="C1015" s="27"/>
+      <c r="C1015" s="28"/>
     </row>
     <row r="1016" spans="3:3">
-      <c r="C1016" s="27"/>
+      <c r="C1016" s="28"/>
     </row>
     <row r="1017" spans="3:3">
-      <c r="C1017" s="27"/>
+      <c r="C1017" s="28"/>
     </row>
     <row r="1018" spans="3:3">
-      <c r="C1018" s="27"/>
+      <c r="C1018" s="28"/>
     </row>
     <row r="1019" spans="3:3">
-      <c r="C1019" s="27"/>
+      <c r="C1019" s="28"/>
     </row>
     <row r="1020" spans="3:3">
-      <c r="C1020" s="27"/>
+      <c r="C1020" s="28"/>
     </row>
     <row r="1021" spans="3:3">
-      <c r="C1021" s="27"/>
+      <c r="C1021" s="28"/>
     </row>
     <row r="1022" spans="3:3">
-      <c r="C1022" s="27"/>
+      <c r="C1022" s="28"/>
     </row>
     <row r="1023" spans="3:3">
-      <c r="C1023" s="27"/>
+      <c r="C1023" s="28"/>
     </row>
     <row r="1024" spans="3:3">
-      <c r="C1024" s="27"/>
+      <c r="C1024" s="28"/>
     </row>
     <row r="1025" spans="3:3">
-      <c r="C1025" s="27"/>
+      <c r="C1025" s="28"/>
     </row>
     <row r="1026" spans="3:3">
-      <c r="C1026" s="27"/>
+      <c r="C1026" s="28"/>
     </row>
     <row r="1027" spans="3:3">
-      <c r="C1027" s="27"/>
+      <c r="C1027" s="28"/>
     </row>
     <row r="1028" spans="3:3">
-      <c r="C1028" s="27"/>
+      <c r="C1028" s="28"/>
     </row>
     <row r="1029" spans="3:3">
-      <c r="C1029" s="27"/>
+      <c r="C1029" s="28"/>
     </row>
     <row r="1030" spans="3:3">
-      <c r="C1030" s="27"/>
+      <c r="C1030" s="28"/>
     </row>
     <row r="1031" spans="3:3">
-      <c r="C1031" s="27"/>
+      <c r="C1031" s="28"/>
     </row>
     <row r="1032" spans="3:3">
       <c r="C1032" s="7"/>
@@ -5256,178 +5259,178 @@
       <c r="C1041" s="7"/>
     </row>
     <row r="1042" spans="3:3">
-      <c r="C1042" s="27"/>
+      <c r="C1042" s="28"/>
     </row>
     <row r="1043" spans="3:3">
-      <c r="C1043" s="27"/>
+      <c r="C1043" s="28"/>
     </row>
     <row r="1044" spans="3:3">
-      <c r="C1044" s="27"/>
+      <c r="C1044" s="28"/>
     </row>
     <row r="1045" spans="3:3">
-      <c r="C1045" s="27"/>
+      <c r="C1045" s="28"/>
     </row>
     <row r="1046" spans="3:3">
-      <c r="C1046" s="21"/>
+      <c r="C1046" s="22"/>
     </row>
     <row r="1047" spans="3:3">
-      <c r="C1047" s="21"/>
+      <c r="C1047" s="22"/>
     </row>
     <row r="1048" spans="3:3">
-      <c r="C1048" s="21"/>
+      <c r="C1048" s="22"/>
     </row>
     <row r="1049" spans="3:3">
-      <c r="C1049" s="21"/>
+      <c r="C1049" s="22"/>
     </row>
     <row r="1050" spans="3:3">
-      <c r="C1050" s="21"/>
+      <c r="C1050" s="22"/>
     </row>
     <row r="1051" spans="3:3">
-      <c r="C1051" s="21"/>
+      <c r="C1051" s="22"/>
     </row>
     <row r="1052" spans="3:3">
-      <c r="C1052" s="21"/>
+      <c r="C1052" s="22"/>
     </row>
     <row r="1053" spans="3:3">
-      <c r="C1053" s="21"/>
+      <c r="C1053" s="22"/>
     </row>
     <row r="1054" spans="3:3">
-      <c r="C1054" s="21"/>
+      <c r="C1054" s="22"/>
     </row>
     <row r="1055" spans="3:3">
-      <c r="C1055" s="21"/>
+      <c r="C1055" s="22"/>
     </row>
     <row r="1056" spans="3:3">
-      <c r="C1056" s="21"/>
+      <c r="C1056" s="22"/>
     </row>
     <row r="1057" spans="3:3">
-      <c r="C1057" s="21"/>
+      <c r="C1057" s="22"/>
     </row>
     <row r="1058" spans="3:3">
-      <c r="C1058" s="21"/>
+      <c r="C1058" s="22"/>
     </row>
     <row r="1059" spans="3:3">
-      <c r="C1059" s="21"/>
+      <c r="C1059" s="22"/>
     </row>
     <row r="1060" spans="3:3">
-      <c r="C1060" s="21"/>
+      <c r="C1060" s="22"/>
     </row>
     <row r="1061" spans="3:3">
-      <c r="C1061" s="21"/>
+      <c r="C1061" s="22"/>
     </row>
     <row r="1062" spans="3:3">
-      <c r="C1062" s="21"/>
+      <c r="C1062" s="22"/>
     </row>
     <row r="1063" spans="3:3">
-      <c r="C1063" s="21"/>
+      <c r="C1063" s="22"/>
     </row>
     <row r="1064" spans="3:3">
-      <c r="C1064" s="21"/>
+      <c r="C1064" s="22"/>
     </row>
     <row r="1065" spans="3:3">
-      <c r="C1065" s="21"/>
+      <c r="C1065" s="22"/>
     </row>
     <row r="1066" spans="3:3">
-      <c r="C1066" s="21"/>
+      <c r="C1066" s="22"/>
     </row>
     <row r="1067" spans="3:3">
-      <c r="C1067" s="21"/>
+      <c r="C1067" s="22"/>
     </row>
     <row r="1068" spans="3:3">
-      <c r="C1068" s="21"/>
+      <c r="C1068" s="22"/>
     </row>
     <row r="1069" spans="3:3">
-      <c r="C1069" s="21"/>
+      <c r="C1069" s="22"/>
     </row>
     <row r="1070" spans="3:3">
-      <c r="C1070" s="21"/>
+      <c r="C1070" s="22"/>
     </row>
     <row r="1071" spans="3:3">
-      <c r="C1071" s="21"/>
+      <c r="C1071" s="22"/>
     </row>
     <row r="1072" spans="3:3">
-      <c r="C1072" s="21"/>
+      <c r="C1072" s="22"/>
     </row>
     <row r="1073" spans="3:3">
-      <c r="C1073" s="21"/>
+      <c r="C1073" s="22"/>
     </row>
     <row r="1074" spans="3:3">
-      <c r="C1074" s="21"/>
+      <c r="C1074" s="22"/>
     </row>
     <row r="1075" spans="3:3">
-      <c r="C1075" s="21"/>
+      <c r="C1075" s="22"/>
     </row>
     <row r="1076" spans="3:3">
-      <c r="C1076" s="21"/>
+      <c r="C1076" s="22"/>
     </row>
     <row r="1077" spans="3:3">
-      <c r="C1077" s="21"/>
+      <c r="C1077" s="22"/>
     </row>
     <row r="1078" spans="3:3">
-      <c r="C1078" s="21"/>
+      <c r="C1078" s="22"/>
     </row>
     <row r="1079" spans="3:3">
-      <c r="C1079" s="21"/>
+      <c r="C1079" s="22"/>
     </row>
     <row r="1080" spans="3:3">
-      <c r="C1080" s="21"/>
+      <c r="C1080" s="22"/>
     </row>
     <row r="1081" spans="3:3">
-      <c r="C1081" s="21"/>
+      <c r="C1081" s="22"/>
     </row>
     <row r="1082" spans="3:3">
-      <c r="C1082" s="21"/>
+      <c r="C1082" s="22"/>
     </row>
     <row r="1083" spans="3:3">
-      <c r="C1083" s="21"/>
+      <c r="C1083" s="22"/>
     </row>
     <row r="1084" spans="3:3">
-      <c r="C1084" s="21"/>
+      <c r="C1084" s="22"/>
     </row>
     <row r="1085" spans="3:3">
-      <c r="C1085" s="21"/>
+      <c r="C1085" s="22"/>
     </row>
     <row r="1086" spans="3:3">
-      <c r="C1086" s="21"/>
+      <c r="C1086" s="22"/>
     </row>
     <row r="1087" spans="3:3">
-      <c r="C1087" s="21"/>
+      <c r="C1087" s="22"/>
     </row>
     <row r="1088" spans="3:3">
-      <c r="C1088" s="21"/>
+      <c r="C1088" s="22"/>
     </row>
     <row r="1089" spans="3:3">
-      <c r="C1089" s="21"/>
+      <c r="C1089" s="22"/>
     </row>
     <row r="1090" spans="3:3">
-      <c r="C1090" s="21"/>
+      <c r="C1090" s="22"/>
     </row>
     <row r="1091" spans="3:3">
-      <c r="C1091" s="21"/>
+      <c r="C1091" s="22"/>
     </row>
     <row r="1092" spans="3:3">
-      <c r="C1092" s="21"/>
+      <c r="C1092" s="22"/>
     </row>
     <row r="1093" spans="3:3">
-      <c r="C1093" s="21"/>
+      <c r="C1093" s="22"/>
     </row>
     <row r="1094" spans="3:3">
-      <c r="C1094" s="21"/>
+      <c r="C1094" s="22"/>
     </row>
     <row r="1095" spans="3:3">
-      <c r="C1095" s="21"/>
+      <c r="C1095" s="22"/>
     </row>
     <row r="1096" spans="3:3">
-      <c r="C1096" s="21"/>
+      <c r="C1096" s="22"/>
     </row>
     <row r="1097" spans="3:3">
-      <c r="C1097" s="21"/>
+      <c r="C1097" s="22"/>
     </row>
     <row r="1098" spans="3:3">
-      <c r="C1098" s="21"/>
+      <c r="C1098" s="22"/>
     </row>
     <row r="1099" spans="3:3">
-      <c r="C1099" s="21"/>
+      <c r="C1099" s="22"/>
     </row>
     <row r="1100" spans="3:3">
       <c r="C1100" s="7"/>
@@ -5439,13 +5442,13 @@
       <c r="C1102" s="7"/>
     </row>
     <row r="1103" spans="3:3">
-      <c r="C1103" s="21"/>
+      <c r="C1103" s="22"/>
     </row>
     <row r="1104" spans="3:3">
-      <c r="C1104" s="21"/>
+      <c r="C1104" s="22"/>
     </row>
     <row r="1105" spans="3:3">
-      <c r="C1105" s="21"/>
+      <c r="C1105" s="22"/>
     </row>
     <row r="1106" spans="3:3">
       <c r="C1106" s="7"/>
@@ -5454,10 +5457,10 @@
       <c r="C1107" s="7"/>
     </row>
     <row r="1108" spans="3:3">
-      <c r="C1108" s="21"/>
+      <c r="C1108" s="22"/>
     </row>
     <row r="1109" spans="3:3">
-      <c r="C1109" s="21"/>
+      <c r="C1109" s="22"/>
     </row>
     <row r="1110" spans="3:3">
       <c r="C1110" s="7"/>
@@ -5466,10 +5469,10 @@
       <c r="C1111" s="7"/>
     </row>
     <row r="1112" spans="3:3">
-      <c r="C1112" s="21"/>
+      <c r="C1112" s="22"/>
     </row>
     <row r="1113" spans="3:3">
-      <c r="C1113" s="21"/>
+      <c r="C1113" s="22"/>
     </row>
     <row r="1114" spans="3:3">
       <c r="C1114" s="7"/>
@@ -5478,10 +5481,10 @@
       <c r="C1115" s="7"/>
     </row>
     <row r="1116" spans="3:3">
-      <c r="C1116" s="21"/>
+      <c r="C1116" s="22"/>
     </row>
     <row r="1117" spans="3:3">
-      <c r="C1117" s="21"/>
+      <c r="C1117" s="22"/>
     </row>
     <row r="1118" spans="3:3">
       <c r="C1118" s="7"/>
@@ -5823,7 +5826,7 @@
       <c r="C1230" s="7"/>
     </row>
     <row r="1231" spans="3:3">
-      <c r="C1231" s="31"/>
+      <c r="C1231" s="32"/>
     </row>
     <row r="1232" spans="3:3">
       <c r="C1232" s="7"/>
@@ -6249,118 +6252,118 @@
       <c r="C1372" s="9"/>
     </row>
     <row r="1373" spans="3:3">
-      <c r="C1373" s="27"/>
+      <c r="C1373" s="28"/>
     </row>
     <row r="1374" spans="3:3">
-      <c r="C1374" s="27"/>
+      <c r="C1374" s="28"/>
     </row>
     <row r="1375" spans="3:3">
-      <c r="C1375" s="27"/>
+      <c r="C1375" s="28"/>
     </row>
     <row r="1376" spans="3:3">
-      <c r="C1376" s="27"/>
+      <c r="C1376" s="28"/>
     </row>
     <row r="1377" spans="3:3">
-      <c r="C1377" s="27"/>
+      <c r="C1377" s="28"/>
     </row>
     <row r="1378" spans="3:3">
-      <c r="C1378" s="27"/>
+      <c r="C1378" s="28"/>
     </row>
     <row r="1379" spans="3:3">
-      <c r="C1379" s="27"/>
+      <c r="C1379" s="28"/>
     </row>
     <row r="1380" spans="3:3">
-      <c r="C1380" s="27"/>
+      <c r="C1380" s="28"/>
     </row>
     <row r="1381" spans="3:3">
-      <c r="C1381" s="27"/>
+      <c r="C1381" s="28"/>
     </row>
     <row r="1382" spans="3:3">
-      <c r="C1382" s="27"/>
+      <c r="C1382" s="28"/>
     </row>
     <row r="1383" spans="3:3">
-      <c r="C1383" s="27"/>
+      <c r="C1383" s="28"/>
     </row>
     <row r="1384" spans="3:3">
-      <c r="C1384" s="27"/>
+      <c r="C1384" s="28"/>
     </row>
     <row r="1385" spans="3:3">
-      <c r="C1385" s="27"/>
+      <c r="C1385" s="28"/>
     </row>
     <row r="1386" spans="3:3">
-      <c r="C1386" s="27"/>
+      <c r="C1386" s="28"/>
     </row>
     <row r="1387" spans="3:3">
-      <c r="C1387" s="27"/>
+      <c r="C1387" s="28"/>
     </row>
     <row r="1388" spans="3:3">
-      <c r="C1388" s="27"/>
+      <c r="C1388" s="28"/>
     </row>
     <row r="1389" spans="3:3">
-      <c r="C1389" s="27"/>
+      <c r="C1389" s="28"/>
     </row>
     <row r="1390" spans="3:3">
-      <c r="C1390" s="27"/>
+      <c r="C1390" s="28"/>
     </row>
     <row r="1391" spans="3:3">
-      <c r="C1391" s="27"/>
+      <c r="C1391" s="28"/>
     </row>
     <row r="1392" spans="3:3">
-      <c r="C1392" s="27"/>
+      <c r="C1392" s="28"/>
     </row>
     <row r="1393" spans="3:3">
-      <c r="C1393" s="27"/>
+      <c r="C1393" s="28"/>
     </row>
     <row r="1394" spans="3:3">
-      <c r="C1394" s="27"/>
+      <c r="C1394" s="28"/>
     </row>
     <row r="1395" spans="3:3">
-      <c r="C1395" s="27"/>
+      <c r="C1395" s="28"/>
     </row>
     <row r="1396" spans="3:3">
-      <c r="C1396" s="27"/>
+      <c r="C1396" s="28"/>
     </row>
     <row r="1397" spans="3:3">
-      <c r="C1397" s="27"/>
+      <c r="C1397" s="28"/>
     </row>
     <row r="1398" spans="3:3">
-      <c r="C1398" s="27"/>
+      <c r="C1398" s="28"/>
     </row>
     <row r="1399" spans="3:3">
-      <c r="C1399" s="27"/>
+      <c r="C1399" s="28"/>
     </row>
     <row r="1400" spans="3:3">
-      <c r="C1400" s="27"/>
+      <c r="C1400" s="28"/>
     </row>
     <row r="1401" spans="3:3">
-      <c r="C1401" s="27"/>
+      <c r="C1401" s="28"/>
     </row>
     <row r="1402" spans="3:3">
-      <c r="C1402" s="27"/>
+      <c r="C1402" s="28"/>
     </row>
     <row r="1403" spans="3:3">
-      <c r="C1403" s="27"/>
+      <c r="C1403" s="28"/>
     </row>
     <row r="1404" spans="3:3">
-      <c r="C1404" s="27"/>
+      <c r="C1404" s="28"/>
     </row>
     <row r="1405" spans="3:3">
-      <c r="C1405" s="27"/>
+      <c r="C1405" s="28"/>
     </row>
     <row r="1406" spans="3:3">
-      <c r="C1406" s="27"/>
+      <c r="C1406" s="28"/>
     </row>
     <row r="1407" spans="3:3">
-      <c r="C1407" s="27"/>
+      <c r="C1407" s="28"/>
     </row>
     <row r="1408" spans="3:3">
-      <c r="C1408" s="27"/>
+      <c r="C1408" s="28"/>
     </row>
     <row r="1409" spans="3:3">
-      <c r="C1409" s="27"/>
+      <c r="C1409" s="28"/>
     </row>
     <row r="1410" spans="3:3">
-      <c r="C1410" s="27"/>
+      <c r="C1410" s="28"/>
     </row>
     <row r="1411" spans="3:3">
       <c r="C1411" s="7"/>
@@ -6810,22 +6813,22 @@
       <c r="C1559" s="7"/>
     </row>
     <row r="1560" spans="3:3">
-      <c r="C1560" s="22"/>
+      <c r="C1560" s="23"/>
     </row>
     <row r="1561" spans="3:3">
-      <c r="C1561" s="22"/>
+      <c r="C1561" s="23"/>
     </row>
     <row r="1562" spans="3:3">
-      <c r="C1562" s="22"/>
+      <c r="C1562" s="23"/>
     </row>
     <row r="1563" spans="3:3">
-      <c r="C1563" s="22"/>
+      <c r="C1563" s="23"/>
     </row>
     <row r="1564" spans="3:3">
-      <c r="C1564" s="22"/>
+      <c r="C1564" s="23"/>
     </row>
     <row r="1565" spans="3:3">
-      <c r="C1565" s="22"/>
+      <c r="C1565" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6840,10 +6843,10 @@
   <sheetPr/>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -6879,197 +6882,209 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="3:5">
-      <c r="C2" s="20"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="21"/>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20">
+        <v>59</v>
+      </c>
+      <c r="C2" s="21">
+        <v>59</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1000702</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="3:5">
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="21"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="3:5">
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="21"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="21"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="21"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="3:5">
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="3:5">
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="3:5">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="3:5">
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="3:5">
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="21"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="3:5">
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="21"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="21"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="21"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="21"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="21"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="21"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="21"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="21"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="21"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="13"/>
@@ -7117,7 +7132,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -7188,8 +7203,8 @@
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -7207,10 +7222,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -7230,16 +7245,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9">
         <v>1000686</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2"/>
@@ -7249,7 +7264,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>16</v>
@@ -7258,7 +7273,7 @@
         <v>1000686</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -7294,6 +7309,7 @@
       <c r="A8" s="7"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7"/>
+      <c r="D8"/>
       <c r="E8" s="10"/>
       <c r="F8" s="2"/>
     </row>

--- a/config_7.20/extra_award_server.xlsx
+++ b/config_7.20/extra_award_server.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>id|</t>
   </si>
@@ -149,6 +149,9 @@
     <t>|对应参数说明</t>
   </si>
   <si>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+  </si>
+  <si>
     <t>100,110,130,150</t>
   </si>
   <si>
@@ -175,10 +178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -206,6 +209,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -214,40 +233,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,7 +262,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,38 +330,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -320,31 +340,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,7 +403,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,13 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,109 +457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +487,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,7 +553,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,10 +596,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -622,15 +623,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,16 +680,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,16 +709,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,115 +727,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -6846,7 +6849,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -6889,14 +6892,14 @@
       <c r="B2" s="20">
         <v>59</v>
       </c>
-      <c r="C2" s="21">
-        <v>59</v>
+      <c r="C2" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="9">
         <v>1000702</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="3:5">
@@ -7132,7 +7135,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -7204,7 +7207,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -7222,10 +7225,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -7245,16 +7248,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="9">
         <v>1000686</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2"/>
@@ -7264,16 +7267,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="9">
         <v>1000686</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2"/>
     </row>

--- a/config_7.20/extra_award_server.xlsx
+++ b/config_7.20/extra_award_server.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>id|</t>
   </si>
@@ -149,10 +149,7 @@
     <t>|对应参数说明</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
-  </si>
-  <si>
-    <t>100,110,130,150</t>
+    <t>1,1.1,1.3,1.5</t>
   </si>
   <si>
     <t>box_id|宝箱id</t>
@@ -170,6 +167,9 @@
     <t>buyu_3d_get_use_item</t>
   </si>
   <si>
+    <t>100,110,130,150</t>
+  </si>
+  <si>
     <t>buyu_get_use_item</t>
   </si>
 </sst>
@@ -178,8 +178,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -209,48 +209,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,31 +261,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,22 +271,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,7 +285,38 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -340,7 +325,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,6 +341,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,13 +403,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +445,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,37 +505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,13 +523,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,79 +559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,8 +596,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -627,17 +629,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,37 +668,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,37 +709,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,94 +742,100 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -6849,7 +6849,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -6892,60 +6892,168 @@
       <c r="B2" s="20">
         <v>59</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>10</v>
+      <c r="C2" s="21">
+        <v>1</v>
       </c>
       <c r="D2" s="9">
         <v>1000702</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5">
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="3:5">
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="22"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20">
+        <v>59</v>
+      </c>
+      <c r="C3" s="21">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1000702</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20">
+        <v>59</v>
+      </c>
+      <c r="C4" s="21">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1000702</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20">
+        <v>59</v>
+      </c>
+      <c r="C5" s="21">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1000702</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20">
+        <v>59</v>
+      </c>
+      <c r="C6" s="21">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1000702</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20">
+        <v>59</v>
+      </c>
+      <c r="C7" s="21">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1000702</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20">
+        <v>59</v>
+      </c>
+      <c r="C8" s="21">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1000702</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20">
+        <v>59</v>
+      </c>
+      <c r="C9" s="21">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1000702</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20">
+        <v>59</v>
+      </c>
+      <c r="C10" s="21">
+        <v>9</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1000702</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20">
+        <v>59</v>
+      </c>
+      <c r="C11" s="21">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1000702</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" s="9"/>
@@ -7120,7 +7228,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="A2:F27"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -7135,7 +7243,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -7225,10 +7333,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -7248,16 +7356,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="9">
         <v>1000686</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2"/>
@@ -7267,7 +7375,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>17</v>
@@ -7276,7 +7384,7 @@
         <v>1000686</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
     </row>
